--- a/IO定义.xlsx
+++ b/IO定义.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>输入</t>
   </si>
@@ -24,12 +24,6 @@
     <t>输出</t>
   </si>
   <si>
-    <t>编码器绿色</t>
-  </si>
-  <si>
-    <t>编码器白色</t>
-  </si>
-  <si>
     <t>电机前进</t>
   </si>
   <si>
@@ -46,6 +40,24 @@
   </si>
   <si>
     <t>P2.4</t>
+  </si>
+  <si>
+    <t>MotorForward</t>
+  </si>
+  <si>
+    <t>MotorBack</t>
+  </si>
+  <si>
+    <t>EncoderCounting</t>
+  </si>
+  <si>
+    <t>EncoderDirection</t>
+  </si>
+  <si>
+    <t>编码器计数（绿色）</t>
+  </si>
+  <si>
+    <t>编码器方向（白色）</t>
   </si>
 </sst>
 </file>
@@ -425,12 +437,13 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -443,21 +456,25 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2"/>
@@ -473,21 +490,25 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2"/>
